--- a/save/eis_sumer_ion_width_merg_v3.xlsx
+++ b/save/eis_sumer_ion_width_merg_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FD0546-C04B-E342-BFF8-7976126BDCC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A937BC5-76C8-EA42-AAE0-8AA9BF3ACFA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="960" windowWidth="27240" windowHeight="16440" xr2:uid="{3DCFD0CB-715A-2D4B-85DC-F643424B7CE8}"/>
+    <workbookView xWindow="1600" yWindow="1160" windowWidth="27240" windowHeight="16440" xr2:uid="{3DCFD0CB-715A-2D4B-85DC-F643424B7CE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -834,7 +834,7 @@
         <v>35.1</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="I12" t="s">
         <v>9</v>
@@ -1211,7 +1211,7 @@
         <v>26</v>
       </c>
       <c r="G25">
-        <v>69</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="H25">
         <v>15</v>
